--- a/Serienbrief_Dispatcher/Data/Config.xlsx
+++ b/Serienbrief_Dispatcher/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Allgemein\Gemeinsame-Projekte\RPA-Plattform\02 Use Cases\ITM_rpa001_LoB-Bescheide\Prozess\LoB-Dispatcher_Lunatec\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timotheus.vrettos\develop\develop_RPA\uipath-rpa_lob\Serienbrief_Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E126E4D-7518-4084-B135-5FCC0A4EF0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B624C9BA-AC1B-47A2-849E-8DF1BB39E67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="2460" windowWidth="11730" windowHeight="15450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27795" yWindow="7185" windowWidth="21255" windowHeight="10815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -252,9 +252,6 @@
     <t>rpa001_EmailBodyHtmlPath</t>
   </si>
   <si>
-    <t>rpa001_EmailSubjetctLine</t>
-  </si>
-  <si>
     <t>rpa001_Send_Groupmailbox</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>rpa001_SerialPrintTemplate</t>
+  </si>
+  <si>
+    <t>rpa001_EmailSubjectLine</t>
   </si>
 </sst>
 </file>
@@ -710,7 +710,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
@@ -735,7 +735,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -2027,7 +2027,7 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3010,7 +3010,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3123,50 +3123,50 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
